--- a/examples/example1.xlsx
+++ b/examples/example1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giggi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giggi\Desktop\software\plafi\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643B2EA3-D499-44D5-B97E-F086B9FC38F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2794D2D8-DD18-4150-9EF0-D98F1BBBA6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63:D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -378,15 +378,15 @@
         <v>0.1</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B63" si="0">SIN(A2)</f>
+        <f t="shared" ref="B2:B65" si="0">SIN(A2)</f>
         <v>9.9833416646828155E-2</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C63" si="1">COS(A2)</f>
+        <f t="shared" ref="C2:C65" si="1">COS(A2)</f>
         <v>0.99500416527802582</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D63" si="2">TAN(A2)</f>
+        <f t="shared" ref="D2:D65" si="2">TAN(A2)</f>
         <v>0.10033467208545055</v>
       </c>
     </row>
@@ -1488,6 +1488,1140 @@
         <v>8.4075445026204915E-3</v>
       </c>
     </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f t="shared" si="3"/>
+        <v>3.1999999999999966</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>-5.837414342757654E-2</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>-0.99829477579475323</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>5.8473854459575078E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <f t="shared" si="3"/>
+        <v>3.2499999999999964</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>-0.10819513453010485</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>-0.99412967608054659</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="2"/>
+        <v>0.10883402551332612</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f t="shared" si="3"/>
+        <v>3.2999999999999963</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66:B126" si="4">SIN(A66)</f>
+        <v>-0.15774569414324469</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:C126" si="5">COS(A66)</f>
+        <v>-0.98747976990886543</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:D126" si="6">TAN(A66)</f>
+        <v>0.15974574766002858</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <f t="shared" ref="A67:A130" si="7">A66+0.05</f>
+        <v>3.3499999999999961</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="4"/>
+        <v>-0.20690197167339586</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="5"/>
+        <v>-0.9783616785819349</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="6"/>
+        <v>0.21147800062374214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <f t="shared" si="7"/>
+        <v>3.3999999999999959</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="4"/>
+        <v>-0.25554110202682739</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="5"/>
+        <v>-0.96679819257946209</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="6"/>
+        <v>0.26431690086742088</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <f t="shared" si="7"/>
+        <v>3.4499999999999957</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="4"/>
+        <v>-0.30354151270842511</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="5"/>
+        <v>-0.95281821459430605</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="6"/>
+        <v>0.31857232372249306</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <f t="shared" si="7"/>
+        <v>3.4999999999999956</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="4"/>
+        <v>-0.35078322768961567</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="5"/>
+        <v>-0.9364566872907979</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="6"/>
+        <v>0.37458564015858958</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <f t="shared" si="7"/>
+        <v>3.5499999999999954</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="4"/>
+        <v>-0.3971481672859557</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="5"/>
+        <v>-0.91775450596627772</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="6"/>
+        <v>0.43273900014014055</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <f t="shared" si="7"/>
+        <v>3.5999999999999952</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="4"/>
+        <v>-0.44252044329484808</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="5"/>
+        <v>-0.8967584163341491</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="6"/>
+        <v>0.49346672998489777</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <f t="shared" si="7"/>
+        <v>3.649999999999995</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="4"/>
+        <v>-0.48678664865569515</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="5"/>
+        <v>-0.87352089768394026</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="6"/>
+        <v>0.55726960848488549</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <f t="shared" si="7"/>
+        <v>3.6999999999999948</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="4"/>
+        <v>-0.52983614090848885</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="5"/>
+        <v>-0.84810003171041093</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="6"/>
+        <v>0.62473307522455646</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <f t="shared" si="7"/>
+        <v>3.7499999999999947</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="4"/>
+        <v>-0.5715613187423394</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="5"/>
+        <v>-0.82055935733956376</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="6"/>
+        <v>0.69655085111145221</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <f t="shared" si="7"/>
+        <v>3.7999999999999945</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="4"/>
+        <v>-0.6118578909427147</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="5"/>
+        <v>-0.79096771191442006</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="6"/>
+        <v>0.77355609050311724</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f t="shared" si="7"/>
+        <v>3.8499999999999943</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="4"/>
+        <v>-0.65062513706516301</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="5"/>
+        <v>-0.7593990591375116</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="6"/>
+        <v>0.85676315928559521</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <f t="shared" si="7"/>
+        <v>3.8999999999999941</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="4"/>
+        <v>-0.68776615918396955</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="5"/>
+        <v>-0.72593230420014421</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="6"/>
+        <v>0.94742464993588171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <f t="shared" si="7"/>
+        <v>3.949999999999994</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="4"/>
+        <v>-0.72318812408650779</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="5"/>
+        <v>-0.69065109656051205</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="6"/>
+        <v>1.0471106578821525</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <f t="shared" si="7"/>
+        <v>3.9999999999999938</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="4"/>
+        <v>-0.75680249530792421</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="5"/>
+        <v>-0.6536436208636166</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="6"/>
+        <v>1.1578212823495631</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <f t="shared" si="7"/>
+        <v>4.0499999999999936</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="4"/>
+        <v>-0.78852525442619115</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="5"/>
+        <v>-0.61500237652557932</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="6"/>
+        <v>1.282149930673308</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <f t="shared" si="7"/>
+        <v>4.0999999999999934</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="4"/>
+        <v>-0.8182771110644067</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="5"/>
+        <v>-0.57482394653327429</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="6"/>
+        <v>1.4235264831943459</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <f t="shared" si="7"/>
+        <v>4.1499999999999932</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="4"/>
+        <v>-0.84598370107544274</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="5"/>
+        <v>-0.53320875603716034</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="6"/>
+        <v>1.5865900390737102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <f t="shared" si="7"/>
+        <v>4.1999999999999931</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="4"/>
+        <v>-0.87157577241358464</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="5"/>
+        <v>-0.49026082134070559</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="6"/>
+        <v>1.7777797745088122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <f t="shared" si="7"/>
+        <v>4.2499999999999929</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="4"/>
+        <v>-0.89498935822858039</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="5"/>
+        <v>-0.44608748991379915</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="6"/>
+        <v>2.0063090278580238</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <f t="shared" si="7"/>
+        <v>4.2999999999999927</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="4"/>
+        <v>-0.91616593674945201</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="5"/>
+        <v>-0.40079917207998195</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="6"/>
+        <v>2.285847877366936</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <f t="shared" si="7"/>
+        <v>4.3499999999999925</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="4"/>
+        <v>-0.93505257755844651</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="5"/>
+        <v>-0.35450906504813862</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="6"/>
+        <v>2.6375984981695071</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <f t="shared" si="7"/>
+        <v>4.3999999999999924</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="4"/>
+        <v>-0.95160207388951357</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="5"/>
+        <v>-0.30733286997842696</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="6"/>
+        <v>3.0963237806496609</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <f t="shared" si="7"/>
+        <v>4.4499999999999922</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="4"/>
+        <v>-0.96577306062063673</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="5"/>
+        <v>-0.25938850278963382</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="6"/>
+        <v>3.7232685729478399</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <f t="shared" si="7"/>
+        <v>4.499999999999992</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="4"/>
+        <v>-0.97753011766509534</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="5"/>
+        <v>-0.21079579943078752</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="6"/>
+        <v>4.6373320545510044</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <f t="shared" si="7"/>
+        <v>4.5499999999999918</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="4"/>
+        <v>-0.9868438585032353</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="5"/>
+        <v>-0.16167621635369439</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="6"/>
+        <v>6.1038282609505501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <f t="shared" si="7"/>
+        <v>4.5999999999999917</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="4"/>
+        <v>-0.99369100363346352</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="5"/>
+        <v>-0.11215252693506281</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="6"/>
+        <v>8.8601748956474093</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <f t="shared" si="7"/>
+        <v>4.6499999999999915</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="4"/>
+        <v>-0.99805443875887889</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="5"/>
+        <v>-6.234851460700052E-2</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="6"/>
+        <v>16.007669870724023</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <f t="shared" si="7"/>
+        <v>4.6999999999999913</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="4"/>
+        <v>-0.99992325756410083</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="5"/>
+        <v>-1.238866346289944E-2</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="6"/>
+        <v>80.712762967416893</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <f t="shared" si="7"/>
+        <v>4.7499999999999911</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="4"/>
+        <v>-0.99929278897537832</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="5"/>
+        <v>3.7602152887967678E-2</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="6"/>
+        <v>-26.575414231006498</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <f t="shared" si="7"/>
+        <v>4.7999999999999909</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="4"/>
+        <v>-0.99616460883584146</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="5"/>
+        <v>8.7498983439437544E-2</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="6"/>
+        <v>-11.384870654244082</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <f t="shared" si="7"/>
+        <v>4.8499999999999908</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="4"/>
+        <v>-0.99054653596671449</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="5"/>
+        <v>0.1371771121008985</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="6"/>
+        <v>-7.2209315446015028</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <f t="shared" si="7"/>
+        <v>4.8999999999999906</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="4"/>
+        <v>-0.98245261262433425</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="5"/>
+        <v>0.18651236942256616</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="6"/>
+        <v>-5.2674930658270176</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <f t="shared" si="7"/>
+        <v>4.9499999999999904</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="4"/>
+        <v>-0.97190306940182303</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="5"/>
+        <v>0.23538144295444169</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="6"/>
+        <v>-4.1290556179908195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <f t="shared" si="7"/>
+        <v>4.9999999999999902</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="4"/>
+        <v>-0.95892427466314123</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="5"/>
+        <v>0.28366218546321692</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="6"/>
+        <v>-3.3805150062467071</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <f t="shared" si="7"/>
+        <v>5.0499999999999901</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="4"/>
+        <v>-0.9435486686359098</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="5"/>
+        <v>0.33123392023674447</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="6"/>
+        <v>-2.8485870890321938</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <f t="shared" si="7"/>
+        <v>5.0999999999999899</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="4"/>
+        <v>-0.92581468232773612</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="5"/>
+        <v>0.37797774271297119</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="6"/>
+        <v>-2.4493894155846672</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <f t="shared" si="7"/>
+        <v>5.1499999999999897</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="4"/>
+        <v>-0.905766641468709</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="5"/>
+        <v>0.4237768176794186</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="6"/>
+        <v>-2.1373671321348899</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <f t="shared" si="7"/>
+        <v>5.1999999999999895</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="4"/>
+        <v>-0.88345465572015813</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="5"/>
+        <v>0.46851667130036773</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="6"/>
+        <v>-1.8856418775198125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <f t="shared" si="7"/>
+        <v>5.2499999999999893</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="4"/>
+        <v>-0.85893449342659745</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="5"/>
+        <v>0.51208547724183151</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="6"/>
+        <v>-1.6773264066244298</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <f t="shared" si="7"/>
+        <v>5.2999999999999892</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="4"/>
+        <v>-0.83226744222390714</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="5"/>
+        <v>0.55437433617915188</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="6"/>
+        <v>-1.5012733958069646</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <f t="shared" si="7"/>
+        <v>5.349999999999989</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="4"/>
+        <v>-0.80352015585216219</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="5"/>
+        <v>0.59527754798859756</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="6"/>
+        <v>-1.349824394632726</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <f t="shared" si="7"/>
+        <v>5.3999999999999888</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="4"/>
+        <v>-0.77276448755599447</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="5"/>
+        <v>0.63469287594262569</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="6"/>
+        <v>-1.2175408246205839</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <f t="shared" si="7"/>
+        <v>5.4499999999999886</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="4"/>
+        <v>-0.74007731048890213</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="5"/>
+        <v>0.67252180224845737</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="6"/>
+        <v>-1.1004510307540736</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <f t="shared" si="7"/>
+        <v>5.4999999999999885</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="4"/>
+        <v>-0.70554032557040014</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="5"/>
+        <v>0.70866977429125189</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="6"/>
+        <v>-0.995584052213908</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <f t="shared" si="7"/>
+        <v>5.5499999999999883</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="4"/>
+        <v>-0.66923985727627056</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="5"/>
+        <v>0.74304644096640216</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="6"/>
+        <v>-0.90067029512430052</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <f t="shared" si="7"/>
+        <v>5.5999999999999881</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="4"/>
+        <v>-0.6312666378723305</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="5"/>
+        <v>0.77556587851024228</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="6"/>
+        <v>-0.81394328368972191</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <f t="shared" si="7"/>
+        <v>5.6499999999999879</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="4"/>
+        <v>-0.59171558063101937</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="5"/>
+        <v>0.80614680526470839</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="6"/>
+        <v>-0.73400474549635186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <f t="shared" si="7"/>
+        <v>5.6999999999999877</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="4"/>
+        <v>-0.55068554259764801</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="5"/>
+        <v>0.8347127848391529</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="6"/>
+        <v>-0.65973057152079406</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <f t="shared" si="7"/>
+        <v>5.7499999999999876</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="4"/>
+        <v>-0.50827907749926904</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="5"/>
+        <v>0.86119241716151451</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="6"/>
+        <v>-0.59020384686450689</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <f t="shared" si="7"/>
+        <v>5.7999999999999874</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="4"/>
+        <v>-0.46460217941376836</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="5"/>
+        <v>0.88551951694131315</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="6"/>
+        <v>-0.52466622194681611</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <f t="shared" si="7"/>
+        <v>5.8499999999999872</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="4"/>
+        <v>-0.41976401783987094</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="5"/>
+        <v>0.90763327909840796</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="6"/>
+        <v>-0.46248195995726493</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <f t="shared" si="7"/>
+        <v>5.899999999999987</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="4"/>
+        <v>-0.3738766648302484</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="5"/>
+        <v>0.92747843074403091</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="6"/>
+        <v>-0.40311089987324172</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <f t="shared" si="7"/>
+        <v>5.9499999999999869</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="4"/>
+        <v>-0.32705481486975324</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="5"/>
+        <v>0.94500536933422308</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="6"/>
+        <v>-0.34608778477118124</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <f t="shared" si="7"/>
+        <v>5.9999999999999867</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="4"/>
+        <v>-0.27941549819893868</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="5"/>
+        <v>0.9601702866503623</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="6"/>
+        <v>-0.29100619138476364</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <f t="shared" si="7"/>
+        <v>6.0499999999999865</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="4"/>
+        <v>-0.2310777882994052</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="5"/>
+        <v>0.97293527829689441</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="6"/>
+        <v>-0.23750581714325611</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <f t="shared" si="7"/>
+        <v>6.0999999999999863</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="4"/>
+        <v>-0.18216250427210898</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="5"/>
+        <v>0.98326843844258216</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="6"/>
+        <v>-0.18526223068914904</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <f t="shared" si="7"/>
+        <v>6.1499999999999861</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="4"/>
+        <v>-0.13279190885253081</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="5"/>
+        <v>0.99114393956846714</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="6"/>
+        <v>-0.13397842992446377</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <f t="shared" si="7"/>
+        <v>6.199999999999986</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="4"/>
+        <v>-8.3089402817510566E-2</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="5"/>
+        <v>0.99654209702321628</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="6"/>
+        <v>-8.3377714865942934E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <f t="shared" si="7"/>
+        <v>6.2499999999999858</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="4"/>
+        <v>-3.3179216547571021E-2</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="5"/>
+        <v>0.99944941822449895</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="6"/>
+        <v>-3.3197494483025669E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <f t="shared" si="7"/>
+        <v>6.2999999999999856</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="4"/>
+        <v>1.6813900484335505E-2</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="5"/>
+        <v>0.99985863638341543</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="6"/>
+        <v>1.6816277694167842E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
